--- a/results/BTECH(AG) 2020 Batch 6th Sem.xlsx
+++ b/results/BTECH(AG) 2020 Batch 6th Sem.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="164">
   <si>
     <t>Sl No</t>
   </si>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -638,9 +638,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -926,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,7 +934,7 @@
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="15" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1042,7 +1039,9 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1068,9 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1097,9 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1126,9 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1155,9 @@
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
@@ -1177,7 +1184,9 @@
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1213,9 @@
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1231,7 +1242,9 @@
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1271,9 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1285,7 +1300,9 @@
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1312,7 +1329,9 @@
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1339,7 +1358,9 @@
       <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1366,7 +1387,9 @@
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1416,9 @@
       <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1445,9 @@
       <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1447,7 +1474,9 @@
       <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1503,9 @@
       <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
@@ -1501,7 +1532,9 @@
       <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1561,9 @@
       <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1590,9 @@
       <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1619,9 @@
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1648,9 @@
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1630,13 +1671,15 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
+      <c r="B26" s="5">
+        <v>200301120135</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E26" s="5" t="s">
         <v>64</v>
       </c>
@@ -1663,7 +1706,9 @@
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>64</v>
       </c>
@@ -1690,7 +1735,9 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>64</v>
       </c>
@@ -1717,7 +1764,9 @@
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>64</v>
       </c>
@@ -1744,7 +1793,9 @@
       <c r="C30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>64</v>
       </c>
@@ -1771,7 +1822,9 @@
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
@@ -1798,7 +1851,9 @@
       <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E32" s="5" t="s">
         <v>64</v>
       </c>
@@ -1825,7 +1880,9 @@
       <c r="C33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E33" s="5" t="s">
         <v>64</v>
       </c>
@@ -1852,7 +1909,9 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E34" s="5" t="s">
         <v>64</v>
       </c>
@@ -1879,7 +1938,9 @@
       <c r="C35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E35" s="5" t="s">
         <v>64</v>
       </c>
@@ -1906,7 +1967,9 @@
       <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E36" s="5" t="s">
         <v>64</v>
       </c>
@@ -1933,7 +1996,9 @@
       <c r="C37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1960,7 +2025,9 @@
       <c r="C38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E38" s="5" t="s">
         <v>64</v>
       </c>
@@ -1987,7 +2054,9 @@
       <c r="C39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E39" s="5" t="s">
         <v>64</v>
       </c>
@@ -2014,7 +2083,9 @@
       <c r="C40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E40" s="5" t="s">
         <v>64</v>
       </c>
@@ -2041,7 +2112,9 @@
       <c r="C41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E41" s="5" t="s">
         <v>64</v>
       </c>
@@ -2068,7 +2141,9 @@
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E42" s="5" t="s">
         <v>64</v>
       </c>
@@ -2095,7 +2170,9 @@
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E43" s="5" t="s">
         <v>64</v>
       </c>
@@ -2122,7 +2199,9 @@
       <c r="C44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E44" s="5" t="s">
         <v>68</v>
       </c>
@@ -2149,7 +2228,9 @@
       <c r="C45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E45" s="5" t="s">
         <v>68</v>
       </c>
@@ -2176,7 +2257,9 @@
       <c r="C46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E46" s="5" t="s">
         <v>68</v>
       </c>
@@ -2203,7 +2286,9 @@
       <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E47" s="5" t="s">
         <v>68</v>
       </c>
@@ -2230,7 +2315,9 @@
       <c r="C48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E48" s="5" t="s">
         <v>68</v>
       </c>
@@ -2257,7 +2344,9 @@
       <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>68</v>
       </c>
@@ -2284,7 +2373,9 @@
       <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E50" s="5" t="s">
         <v>68</v>
       </c>
@@ -2311,7 +2402,9 @@
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E51" s="5" t="s">
         <v>68</v>
       </c>
@@ -2338,7 +2431,9 @@
       <c r="C52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E52" s="5" t="s">
         <v>68</v>
       </c>
@@ -2365,7 +2460,9 @@
       <c r="C53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E53" s="5" t="s">
         <v>68</v>
       </c>
@@ -2392,7 +2489,9 @@
       <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>68</v>
       </c>
@@ -2419,7 +2518,9 @@
       <c r="C55" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E55" s="5" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2547,9 @@
       <c r="C56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E56" s="5" t="s">
         <v>68</v>
       </c>
@@ -2473,7 +2576,9 @@
       <c r="C57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E57" s="5" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2605,9 @@
       <c r="C58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E58" s="5" t="s">
         <v>68</v>
       </c>
@@ -2527,7 +2634,9 @@
       <c r="C59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E59" s="5" t="s">
         <v>68</v>
       </c>
@@ -2554,7 +2663,9 @@
       <c r="C60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E60" s="5" t="s">
         <v>68</v>
       </c>
@@ -2581,7 +2692,9 @@
       <c r="C61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E61" s="5" t="s">
         <v>68</v>
       </c>
@@ -2608,7 +2721,9 @@
       <c r="C62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E62" s="5" t="s">
         <v>72</v>
       </c>
@@ -2635,7 +2750,9 @@
       <c r="C63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E63" s="5" t="s">
         <v>72</v>
       </c>
@@ -2662,7 +2779,9 @@
       <c r="C64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E64" s="5" t="s">
         <v>72</v>
       </c>
@@ -2689,7 +2808,9 @@
       <c r="C65" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="14"/>
+      <c r="D65" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E65" s="5" t="s">
         <v>72</v>
       </c>
@@ -2716,7 +2837,9 @@
       <c r="C66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E66" s="5" t="s">
         <v>72</v>
       </c>
@@ -2743,7 +2866,9 @@
       <c r="C67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="14"/>
+      <c r="D67" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E67" s="5" t="s">
         <v>72</v>
       </c>
@@ -2770,7 +2895,9 @@
       <c r="C68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E68" s="5" t="s">
         <v>72</v>
       </c>
@@ -2797,7 +2924,9 @@
       <c r="C69" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="14"/>
+      <c r="D69" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E69" s="5" t="s">
         <v>72</v>
       </c>
@@ -2824,7 +2953,9 @@
       <c r="C70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="14"/>
+      <c r="D70" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E70" s="5" t="s">
         <v>72</v>
       </c>
@@ -2851,7 +2982,9 @@
       <c r="C71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>72</v>
       </c>
@@ -2878,7 +3011,9 @@
       <c r="C72" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E72" s="5" t="s">
         <v>72</v>
       </c>
@@ -2905,7 +3040,9 @@
       <c r="C73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="14"/>
+      <c r="D73" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E73" s="5" t="s">
         <v>72</v>
       </c>
@@ -2932,7 +3069,9 @@
       <c r="C74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>72</v>
       </c>
@@ -2959,7 +3098,9 @@
       <c r="C75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="14"/>
+      <c r="D75" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E75" s="5" t="s">
         <v>72</v>
       </c>
@@ -2986,7 +3127,9 @@
       <c r="C76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="14"/>
+      <c r="D76" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E76" s="5" t="s">
         <v>72</v>
       </c>
@@ -3013,7 +3156,9 @@
       <c r="C77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="14"/>
+      <c r="D77" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E77" s="5" t="s">
         <v>72</v>
       </c>
@@ -3040,7 +3185,9 @@
       <c r="C78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E78" s="5" t="s">
         <v>72</v>
       </c>
@@ -3067,7 +3214,9 @@
       <c r="C79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="14"/>
+      <c r="D79" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E79" s="5" t="s">
         <v>72</v>
       </c>
@@ -3094,7 +3243,9 @@
       <c r="C80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E80" s="5" t="s">
         <v>72</v>
       </c>
@@ -3121,7 +3272,9 @@
       <c r="C81" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="14"/>
+      <c r="D81" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E81" s="5" t="s">
         <v>72</v>
       </c>
@@ -3148,7 +3301,9 @@
       <c r="C82" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="14"/>
+      <c r="D82" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E82" s="5" t="s">
         <v>114</v>
       </c>
@@ -3175,7 +3330,9 @@
       <c r="C83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D83" s="14"/>
+      <c r="D83" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E83" s="5" t="s">
         <v>114</v>
       </c>
@@ -3202,7 +3359,9 @@
       <c r="C84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="14"/>
+      <c r="D84" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E84" s="5" t="s">
         <v>114</v>
       </c>
@@ -3229,7 +3388,9 @@
       <c r="C85" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="14"/>
+      <c r="D85" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E85" s="5" t="s">
         <v>114</v>
       </c>
@@ -3256,7 +3417,9 @@
       <c r="C86" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="14"/>
+      <c r="D86" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E86" s="5" t="s">
         <v>114</v>
       </c>
@@ -3283,7 +3446,9 @@
       <c r="C87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="14"/>
+      <c r="D87" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E87" s="5" t="s">
         <v>114</v>
       </c>
@@ -3310,7 +3475,9 @@
       <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="14"/>
+      <c r="D88" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>114</v>
       </c>
@@ -3337,7 +3504,9 @@
       <c r="C89" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D89" s="14"/>
+      <c r="D89" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E89" s="5" t="s">
         <v>114</v>
       </c>
@@ -3364,7 +3533,9 @@
       <c r="C90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D90" s="14"/>
+      <c r="D90" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E90" s="5" t="s">
         <v>114</v>
       </c>
@@ -3391,7 +3562,9 @@
       <c r="C91" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="14"/>
+      <c r="D91" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E91" s="5" t="s">
         <v>114</v>
       </c>
@@ -3418,7 +3591,9 @@
       <c r="C92" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E92" s="5" t="s">
         <v>114</v>
       </c>
@@ -3445,7 +3620,9 @@
       <c r="C93" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="14"/>
+      <c r="D93" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E93" s="5" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3649,9 @@
       <c r="C94" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="14"/>
+      <c r="D94" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E94" s="5" t="s">
         <v>114</v>
       </c>
@@ -3499,7 +3678,9 @@
       <c r="C95" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="14"/>
+      <c r="D95" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E95" s="5" t="s">
         <v>114</v>
       </c>
@@ -3526,7 +3707,9 @@
       <c r="C96" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="14"/>
+      <c r="D96" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E96" s="5" t="s">
         <v>114</v>
       </c>
@@ -3553,7 +3736,9 @@
       <c r="C97" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D97" s="14"/>
+      <c r="D97" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E97" s="5" t="s">
         <v>114</v>
       </c>
@@ -3580,7 +3765,9 @@
       <c r="C98" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="14"/>
+      <c r="D98" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E98" s="5" t="s">
         <v>114</v>
       </c>
@@ -3607,7 +3794,9 @@
       <c r="C99" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="14"/>
+      <c r="D99" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E99" s="5" t="s">
         <v>114</v>
       </c>
@@ -3634,7 +3823,9 @@
       <c r="C100" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="14"/>
+      <c r="D100" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E100" s="5" t="s">
         <v>114</v>
       </c>
@@ -3661,7 +3852,9 @@
       <c r="C101" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="14"/>
+      <c r="D101" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E101" s="5" t="s">
         <v>114</v>
       </c>
@@ -3688,7 +3881,9 @@
       <c r="C102" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D102" s="14"/>
+      <c r="D102" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E102" s="5" t="s">
         <v>116</v>
       </c>
@@ -3715,7 +3910,9 @@
       <c r="C103" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="14"/>
+      <c r="D103" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E103" s="5" t="s">
         <v>116</v>
       </c>
@@ -3742,7 +3939,9 @@
       <c r="C104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="14"/>
+      <c r="D104" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E104" s="5" t="s">
         <v>116</v>
       </c>
@@ -3769,7 +3968,9 @@
       <c r="C105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D105" s="14"/>
+      <c r="D105" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E105" s="5" t="s">
         <v>116</v>
       </c>
@@ -3796,7 +3997,9 @@
       <c r="C106" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="14"/>
+      <c r="D106" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E106" s="5" t="s">
         <v>116</v>
       </c>
@@ -3823,7 +4026,9 @@
       <c r="C107" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D107" s="14"/>
+      <c r="D107" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E107" s="5" t="s">
         <v>116</v>
       </c>
@@ -3850,7 +4055,9 @@
       <c r="C108" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="14"/>
+      <c r="D108" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E108" s="5" t="s">
         <v>116</v>
       </c>
@@ -3877,7 +4084,9 @@
       <c r="C109" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D109" s="15"/>
+      <c r="D109" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E109" s="7" t="s">
         <v>116</v>
       </c>
@@ -3904,7 +4113,9 @@
       <c r="C110" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D110" s="14"/>
+      <c r="D110" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E110" s="5" t="s">
         <v>116</v>
       </c>
@@ -3931,7 +4142,9 @@
       <c r="C111" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D111" s="14"/>
+      <c r="D111" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E111" s="5" t="s">
         <v>116</v>
       </c>
@@ -3958,7 +4171,9 @@
       <c r="C112" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="14"/>
+      <c r="D112" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E112" s="5" t="s">
         <v>116</v>
       </c>
@@ -3985,7 +4200,9 @@
       <c r="C113" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="14"/>
+      <c r="D113" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E113" s="5" t="s">
         <v>116</v>
       </c>
@@ -4012,7 +4229,9 @@
       <c r="C114" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D114" s="14"/>
+      <c r="D114" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E114" s="5" t="s">
         <v>116</v>
       </c>
@@ -4039,7 +4258,9 @@
       <c r="C115" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D115" s="14"/>
+      <c r="D115" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E115" s="5" t="s">
         <v>116</v>
       </c>
@@ -4066,7 +4287,9 @@
       <c r="C116" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D116" s="14"/>
+      <c r="D116" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E116" s="5" t="s">
         <v>116</v>
       </c>
@@ -4093,7 +4316,9 @@
       <c r="C117" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D117" s="14"/>
+      <c r="D117" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E117" s="5" t="s">
         <v>116</v>
       </c>
@@ -4120,7 +4345,9 @@
       <c r="C118" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D118" s="14"/>
+      <c r="D118" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E118" s="5" t="s">
         <v>116</v>
       </c>
@@ -4147,7 +4374,9 @@
       <c r="C119" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D119" s="14"/>
+      <c r="D119" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E119" s="5" t="s">
         <v>116</v>
       </c>
@@ -4174,7 +4403,9 @@
       <c r="C120" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D120" s="14"/>
+      <c r="D120" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E120" s="5" t="s">
         <v>116</v>
       </c>
@@ -4201,7 +4432,9 @@
       <c r="C121" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D121" s="14"/>
+      <c r="D121" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E121" s="5" t="s">
         <v>116</v>
       </c>
@@ -4228,7 +4461,9 @@
       <c r="C122" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="14"/>
+      <c r="D122" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E122" s="5" t="s">
         <v>120</v>
       </c>
@@ -4255,7 +4490,9 @@
       <c r="C123" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D123" s="14"/>
+      <c r="D123" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E123" s="5" t="s">
         <v>120</v>
       </c>
@@ -4282,7 +4519,9 @@
       <c r="C124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D124" s="14"/>
+      <c r="D124" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E124" s="5" t="s">
         <v>120</v>
       </c>
@@ -4309,7 +4548,9 @@
       <c r="C125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D125" s="14"/>
+      <c r="D125" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E125" s="5" t="s">
         <v>120</v>
       </c>
@@ -4336,7 +4577,9 @@
       <c r="C126" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="14"/>
+      <c r="D126" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E126" s="5" t="s">
         <v>120</v>
       </c>
@@ -4363,7 +4606,9 @@
       <c r="C127" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D127" s="14"/>
+      <c r="D127" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E127" s="5" t="s">
         <v>120</v>
       </c>
@@ -4390,7 +4635,9 @@
       <c r="C128" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="14"/>
+      <c r="D128" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E128" s="5" t="s">
         <v>120</v>
       </c>
@@ -4417,7 +4664,9 @@
       <c r="C129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D129" s="14"/>
+      <c r="D129" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E129" s="5" t="s">
         <v>120</v>
       </c>
@@ -4444,7 +4693,9 @@
       <c r="C130" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="14"/>
+      <c r="D130" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E130" s="5" t="s">
         <v>120</v>
       </c>
@@ -4471,7 +4722,9 @@
       <c r="C131" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D131" s="14"/>
+      <c r="D131" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E131" s="5" t="s">
         <v>120</v>
       </c>
@@ -4498,7 +4751,9 @@
       <c r="C132" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="14"/>
+      <c r="D132" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E132" s="5" t="s">
         <v>140</v>
       </c>
@@ -4525,7 +4780,9 @@
       <c r="C133" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D133" s="14"/>
+      <c r="D133" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E133" s="5" t="s">
         <v>140</v>
       </c>
@@ -4552,7 +4809,9 @@
       <c r="C134" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D134" s="14"/>
+      <c r="D134" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E134" s="5" t="s">
         <v>140</v>
       </c>
@@ -4579,7 +4838,9 @@
       <c r="C135" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="14"/>
+      <c r="D135" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E135" s="5" t="s">
         <v>140</v>
       </c>
@@ -4606,7 +4867,9 @@
       <c r="C136" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D136" s="14"/>
+      <c r="D136" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E136" s="5" t="s">
         <v>140</v>
       </c>
@@ -4633,7 +4896,9 @@
       <c r="C137" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D137" s="14"/>
+      <c r="D137" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E137" s="5" t="s">
         <v>140</v>
       </c>
@@ -4660,7 +4925,9 @@
       <c r="C138" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D138" s="14"/>
+      <c r="D138" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E138" s="5" t="s">
         <v>140</v>
       </c>
@@ -4687,7 +4954,9 @@
       <c r="C139" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="14"/>
+      <c r="D139" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E139" s="5" t="s">
         <v>140</v>
       </c>
@@ -4714,7 +4983,9 @@
       <c r="C140" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="14"/>
+      <c r="D140" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E140" s="5" t="s">
         <v>140</v>
       </c>
@@ -4741,7 +5012,9 @@
       <c r="C141" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D141" s="14"/>
+      <c r="D141" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E141" s="5" t="s">
         <v>140</v>
       </c>
@@ -4768,7 +5041,9 @@
       <c r="C142" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D142" s="14"/>
+      <c r="D142" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E142" s="5" t="s">
         <v>142</v>
       </c>
@@ -4795,7 +5070,9 @@
       <c r="C143" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D143" s="14"/>
+      <c r="D143" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E143" s="5" t="s">
         <v>142</v>
       </c>
@@ -4822,7 +5099,9 @@
       <c r="C144" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D144" s="14"/>
+      <c r="D144" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E144" s="5" t="s">
         <v>142</v>
       </c>
@@ -4849,7 +5128,9 @@
       <c r="C145" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D145" s="14"/>
+      <c r="D145" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E145" s="5" t="s">
         <v>142</v>
       </c>
@@ -4876,7 +5157,9 @@
       <c r="C146" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D146" s="14"/>
+      <c r="D146" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E146" s="5" t="s">
         <v>142</v>
       </c>
@@ -4903,7 +5186,9 @@
       <c r="C147" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="14"/>
+      <c r="D147" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E147" s="5" t="s">
         <v>142</v>
       </c>
@@ -4930,7 +5215,9 @@
       <c r="C148" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D148" s="14"/>
+      <c r="D148" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E148" s="5" t="s">
         <v>142</v>
       </c>
@@ -4957,7 +5244,9 @@
       <c r="C149" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D149" s="14"/>
+      <c r="D149" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E149" s="5" t="s">
         <v>142</v>
       </c>
@@ -4984,7 +5273,9 @@
       <c r="C150" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D150" s="14"/>
+      <c r="D150" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E150" s="5" t="s">
         <v>142</v>
       </c>
@@ -5011,7 +5302,9 @@
       <c r="C151" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D151" s="14"/>
+      <c r="D151" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E151" s="5" t="s">
         <v>142</v>
       </c>
@@ -5038,7 +5331,9 @@
       <c r="C152" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D152" s="14"/>
+      <c r="D152" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E152" s="5" t="s">
         <v>145</v>
       </c>
@@ -5065,7 +5360,9 @@
       <c r="C153" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D153" s="14"/>
+      <c r="D153" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E153" s="5" t="s">
         <v>145</v>
       </c>
@@ -5092,7 +5389,9 @@
       <c r="C154" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D154" s="14"/>
+      <c r="D154" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E154" s="5" t="s">
         <v>145</v>
       </c>
@@ -5119,7 +5418,9 @@
       <c r="C155" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D155" s="14"/>
+      <c r="D155" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E155" s="5" t="s">
         <v>145</v>
       </c>
@@ -5146,7 +5447,9 @@
       <c r="C156" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D156" s="14"/>
+      <c r="D156" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E156" s="5" t="s">
         <v>145</v>
       </c>
@@ -5173,7 +5476,9 @@
       <c r="C157" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D157" s="14"/>
+      <c r="D157" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E157" s="5" t="s">
         <v>145</v>
       </c>
@@ -5200,7 +5505,9 @@
       <c r="C158" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D158" s="14"/>
+      <c r="D158" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E158" s="5" t="s">
         <v>145</v>
       </c>
@@ -5227,7 +5534,9 @@
       <c r="C159" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D159" s="14"/>
+      <c r="D159" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E159" s="5" t="s">
         <v>145</v>
       </c>
@@ -5254,7 +5563,9 @@
       <c r="C160" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D160" s="14"/>
+      <c r="D160" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E160" s="5" t="s">
         <v>145</v>
       </c>
@@ -5281,7 +5592,9 @@
       <c r="C161" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D161" s="14"/>
+      <c r="D161" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E161" s="5" t="s">
         <v>145</v>
       </c>
@@ -5308,7 +5621,9 @@
       <c r="C162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D162" s="14"/>
+      <c r="D162" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E162" s="5" t="s">
         <v>145</v>
       </c>
@@ -5335,7 +5650,9 @@
       <c r="C163" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D163" s="14"/>
+      <c r="D163" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E163" s="5" t="s">
         <v>145</v>
       </c>
@@ -5362,7 +5679,9 @@
       <c r="C164" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D164" s="14"/>
+      <c r="D164" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E164" s="5" t="s">
         <v>145</v>
       </c>
@@ -5389,7 +5708,9 @@
       <c r="C165" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D165" s="14"/>
+      <c r="D165" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E165" s="5" t="s">
         <v>145</v>
       </c>
@@ -5416,7 +5737,9 @@
       <c r="C166" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D166" s="14"/>
+      <c r="D166" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E166" s="5" t="s">
         <v>145</v>
       </c>
@@ -5443,7 +5766,9 @@
       <c r="C167" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D167" s="14"/>
+      <c r="D167" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E167" s="5" t="s">
         <v>145</v>
       </c>
@@ -5470,7 +5795,9 @@
       <c r="C168" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E168" s="5" t="s">
         <v>145</v>
       </c>
@@ -5497,7 +5824,9 @@
       <c r="C169" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D169" s="14"/>
+      <c r="D169" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E169" s="5" t="s">
         <v>145</v>
       </c>
@@ -5524,7 +5853,9 @@
       <c r="C170" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D170" s="14"/>
+      <c r="D170" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E170" s="5" t="s">
         <v>145</v>
       </c>
@@ -5551,7 +5882,9 @@
       <c r="C171" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D171" s="14"/>
+      <c r="D171" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E171" s="5" t="s">
         <v>145</v>
       </c>
@@ -5578,7 +5911,9 @@
       <c r="C172" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D172" s="14"/>
+      <c r="D172" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E172" s="5" t="s">
         <v>145</v>
       </c>
@@ -5605,7 +5940,9 @@
       <c r="C173" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D173" s="14"/>
+      <c r="D173" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E173" s="5" t="s">
         <v>145</v>
       </c>
@@ -5632,7 +5969,9 @@
       <c r="C174" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D174" s="14"/>
+      <c r="D174" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E174" s="5" t="s">
         <v>145</v>
       </c>
@@ -5659,7 +5998,9 @@
       <c r="C175" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D175" s="14"/>
+      <c r="D175" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E175" s="5" t="s">
         <v>145</v>
       </c>
@@ -5686,7 +6027,9 @@
       <c r="C176" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D176" s="14"/>
+      <c r="D176" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E176" s="5" t="s">
         <v>145</v>
       </c>
@@ -5713,7 +6056,9 @@
       <c r="C177" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D177" s="14"/>
+      <c r="D177" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E177" s="5" t="s">
         <v>145</v>
       </c>
@@ -5740,7 +6085,9 @@
       <c r="C178" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D178" s="14"/>
+      <c r="D178" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E178" s="5" t="s">
         <v>145</v>
       </c>
@@ -5767,7 +6114,9 @@
       <c r="C179" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D179" s="14"/>
+      <c r="D179" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E179" s="5" t="s">
         <v>145</v>
       </c>
@@ -5794,7 +6143,9 @@
       <c r="C180" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D180" s="14"/>
+      <c r="D180" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E180" s="5" t="s">
         <v>145</v>
       </c>
@@ -5821,7 +6172,9 @@
       <c r="C181" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D181" s="14"/>
+      <c r="D181" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E181" s="5" t="s">
         <v>145</v>
       </c>
@@ -5848,7 +6201,9 @@
       <c r="C182" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D182" s="14"/>
+      <c r="D182" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E182" s="5" t="s">
         <v>145</v>
       </c>
@@ -5875,7 +6230,9 @@
       <c r="C183" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D183" s="14"/>
+      <c r="D183" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E183" s="5" t="s">
         <v>145</v>
       </c>
@@ -5902,7 +6259,9 @@
       <c r="C184" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D184" s="14"/>
+      <c r="D184" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E184" s="5" t="s">
         <v>145</v>
       </c>
@@ -5929,7 +6288,9 @@
       <c r="C185" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D185" s="14"/>
+      <c r="D185" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E185" s="5" t="s">
         <v>145</v>
       </c>
@@ -5956,7 +6317,9 @@
       <c r="C186" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D186" s="14"/>
+      <c r="D186" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E186" s="5" t="s">
         <v>145</v>
       </c>
@@ -5983,7 +6346,9 @@
       <c r="C187" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D187" s="14"/>
+      <c r="D187" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E187" s="5" t="s">
         <v>145</v>
       </c>
@@ -6010,7 +6375,9 @@
       <c r="C188" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D188" s="14"/>
+      <c r="D188" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E188" s="5" t="s">
         <v>145</v>
       </c>
@@ -6037,7 +6404,9 @@
       <c r="C189" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D189" s="14"/>
+      <c r="D189" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E189" s="5" t="s">
         <v>145</v>
       </c>
@@ -6064,7 +6433,9 @@
       <c r="C190" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D190" s="14"/>
+      <c r="D190" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E190" s="5" t="s">
         <v>145</v>
       </c>
@@ -6091,7 +6462,9 @@
       <c r="C191" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D191" s="14"/>
+      <c r="D191" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E191" s="5" t="s">
         <v>145</v>
       </c>
@@ -6118,7 +6491,9 @@
       <c r="C192" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D192" s="14"/>
+      <c r="D192" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E192" s="5" t="s">
         <v>145</v>
       </c>
@@ -6145,7 +6520,9 @@
       <c r="C193" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D193" s="14"/>
+      <c r="D193" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E193" s="5" t="s">
         <v>145</v>
       </c>
@@ -6172,7 +6549,9 @@
       <c r="C194" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D194" s="14"/>
+      <c r="D194" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E194" s="5" t="s">
         <v>145</v>
       </c>
@@ -6199,7 +6578,9 @@
       <c r="C195" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D195" s="14"/>
+      <c r="D195" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E195" s="5" t="s">
         <v>145</v>
       </c>
@@ -6226,7 +6607,9 @@
       <c r="C196" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D196" s="14"/>
+      <c r="D196" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E196" s="5" t="s">
         <v>145</v>
       </c>
@@ -6253,7 +6636,9 @@
       <c r="C197" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D197" s="14"/>
+      <c r="D197" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E197" s="5" t="s">
         <v>145</v>
       </c>
@@ -6280,7 +6665,9 @@
       <c r="C198" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="14"/>
+      <c r="D198" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E198" s="5" t="s">
         <v>145</v>
       </c>
@@ -6307,7 +6694,9 @@
       <c r="C199" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D199" s="14"/>
+      <c r="D199" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E199" s="5" t="s">
         <v>145</v>
       </c>
@@ -6334,7 +6723,9 @@
       <c r="C200" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D200" s="14"/>
+      <c r="D200" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E200" s="5" t="s">
         <v>148</v>
       </c>
@@ -6361,7 +6752,9 @@
       <c r="C201" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D201" s="14"/>
+      <c r="D201" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E201" s="5" t="s">
         <v>148</v>
       </c>
@@ -6388,7 +6781,9 @@
       <c r="C202" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D202" s="14"/>
+      <c r="D202" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E202" s="5" t="s">
         <v>148</v>
       </c>
@@ -6415,7 +6810,9 @@
       <c r="C203" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D203" s="14"/>
+      <c r="D203" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E203" s="5" t="s">
         <v>148</v>
       </c>
@@ -6442,7 +6839,9 @@
       <c r="C204" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D204" s="14"/>
+      <c r="D204" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E204" s="5" t="s">
         <v>148</v>
       </c>
@@ -6469,7 +6868,9 @@
       <c r="C205" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D205" s="14"/>
+      <c r="D205" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E205" s="5" t="s">
         <v>148</v>
       </c>
@@ -6496,7 +6897,9 @@
       <c r="C206" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D206" s="14"/>
+      <c r="D206" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E206" s="5" t="s">
         <v>148</v>
       </c>
@@ -6523,7 +6926,9 @@
       <c r="C207" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D207" s="14"/>
+      <c r="D207" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E207" s="5" t="s">
         <v>148</v>
       </c>
@@ -6550,7 +6955,9 @@
       <c r="C208" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D208" s="14"/>
+      <c r="D208" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E208" s="5" t="s">
         <v>148</v>
       </c>
@@ -6577,7 +6984,9 @@
       <c r="C209" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D209" s="14"/>
+      <c r="D209" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E209" s="5" t="s">
         <v>148</v>
       </c>
@@ -6604,7 +7013,9 @@
       <c r="C210" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D210" s="14"/>
+      <c r="D210" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E210" s="5" t="s">
         <v>148</v>
       </c>
@@ -6631,7 +7042,9 @@
       <c r="C211" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D211" s="14"/>
+      <c r="D211" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E211" s="5" t="s">
         <v>148</v>
       </c>
@@ -6658,7 +7071,9 @@
       <c r="C212" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D212" s="14"/>
+      <c r="D212" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E212" s="5" t="s">
         <v>148</v>
       </c>
@@ -6685,7 +7100,9 @@
       <c r="C213" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D213" s="14"/>
+      <c r="D213" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E213" s="5" t="s">
         <v>148</v>
       </c>
@@ -6712,7 +7129,9 @@
       <c r="C214" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D214" s="14"/>
+      <c r="D214" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E214" s="5" t="s">
         <v>148</v>
       </c>
@@ -6739,7 +7158,9 @@
       <c r="C215" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D215" s="14"/>
+      <c r="D215" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E215" s="5" t="s">
         <v>148</v>
       </c>
@@ -6766,7 +7187,9 @@
       <c r="C216" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D216" s="14"/>
+      <c r="D216" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E216" s="5" t="s">
         <v>148</v>
       </c>
@@ -6793,7 +7216,9 @@
       <c r="C217" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D217" s="14"/>
+      <c r="D217" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E217" s="5" t="s">
         <v>148</v>
       </c>
@@ -6820,7 +7245,9 @@
       <c r="C218" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D218" s="14"/>
+      <c r="D218" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E218" s="5" t="s">
         <v>148</v>
       </c>
@@ -6847,7 +7274,9 @@
       <c r="C219" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D219" s="14"/>
+      <c r="D219" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E219" s="5" t="s">
         <v>148</v>
       </c>
@@ -6874,7 +7303,9 @@
       <c r="C220" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D220" s="14"/>
+      <c r="D220" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E220" s="5" t="s">
         <v>148</v>
       </c>
@@ -6901,7 +7332,9 @@
       <c r="C221" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D221" s="14"/>
+      <c r="D221" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E221" s="5" t="s">
         <v>148</v>
       </c>
@@ -6928,7 +7361,9 @@
       <c r="C222" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D222" s="14"/>
+      <c r="D222" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E222" s="5" t="s">
         <v>148</v>
       </c>
@@ -6955,7 +7390,9 @@
       <c r="C223" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D223" s="14"/>
+      <c r="D223" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E223" s="5" t="s">
         <v>148</v>
       </c>
@@ -6982,7 +7419,9 @@
       <c r="C224" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D224" s="14"/>
+      <c r="D224" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E224" s="5" t="s">
         <v>148</v>
       </c>
@@ -7009,7 +7448,9 @@
       <c r="C225" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D225" s="14"/>
+      <c r="D225" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E225" s="5" t="s">
         <v>148</v>
       </c>
@@ -7036,7 +7477,9 @@
       <c r="C226" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D226" s="14"/>
+      <c r="D226" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E226" s="5" t="s">
         <v>148</v>
       </c>
@@ -7063,7 +7506,9 @@
       <c r="C227" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D227" s="14"/>
+      <c r="D227" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E227" s="5" t="s">
         <v>148</v>
       </c>
@@ -7090,7 +7535,9 @@
       <c r="C228" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D228" s="14"/>
+      <c r="D228" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E228" s="5" t="s">
         <v>148</v>
       </c>
@@ -7117,7 +7564,9 @@
       <c r="C229" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D229" s="14"/>
+      <c r="D229" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E229" s="5" t="s">
         <v>148</v>
       </c>
@@ -7144,7 +7593,9 @@
       <c r="C230" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D230" s="14"/>
+      <c r="D230" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E230" s="5" t="s">
         <v>148</v>
       </c>
@@ -7171,7 +7622,9 @@
       <c r="C231" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D231" s="14"/>
+      <c r="D231" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E231" s="5" t="s">
         <v>148</v>
       </c>
@@ -7198,7 +7651,9 @@
       <c r="C232" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D232" s="14"/>
+      <c r="D232" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E232" s="5" t="s">
         <v>148</v>
       </c>
@@ -7225,7 +7680,9 @@
       <c r="C233" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D233" s="14"/>
+      <c r="D233" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E233" s="5" t="s">
         <v>148</v>
       </c>
@@ -7252,7 +7709,9 @@
       <c r="C234" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D234" s="14"/>
+      <c r="D234" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E234" s="5" t="s">
         <v>148</v>
       </c>
@@ -7279,7 +7738,9 @@
       <c r="C235" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D235" s="14"/>
+      <c r="D235" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E235" s="5" t="s">
         <v>148</v>
       </c>
@@ -7306,7 +7767,9 @@
       <c r="C236" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D236" s="14"/>
+      <c r="D236" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E236" s="5" t="s">
         <v>148</v>
       </c>
@@ -7333,7 +7796,9 @@
       <c r="C237" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D237" s="14"/>
+      <c r="D237" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E237" s="5" t="s">
         <v>148</v>
       </c>
@@ -7360,7 +7825,9 @@
       <c r="C238" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D238" s="14"/>
+      <c r="D238" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E238" s="5" t="s">
         <v>148</v>
       </c>
@@ -7387,7 +7854,9 @@
       <c r="C239" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D239" s="14"/>
+      <c r="D239" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E239" s="5" t="s">
         <v>148</v>
       </c>
@@ -7414,7 +7883,9 @@
       <c r="C240" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D240" s="14"/>
+      <c r="D240" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E240" s="5" t="s">
         <v>148</v>
       </c>
@@ -7441,7 +7912,9 @@
       <c r="C241" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D241" s="14"/>
+      <c r="D241" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E241" s="5" t="s">
         <v>148</v>
       </c>
@@ -7468,7 +7941,9 @@
       <c r="C242" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D242" s="14"/>
+      <c r="D242" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E242" s="5" t="s">
         <v>148</v>
       </c>
@@ -7495,7 +7970,9 @@
       <c r="C243" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D243" s="14"/>
+      <c r="D243" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E243" s="5" t="s">
         <v>148</v>
       </c>
@@ -7522,7 +7999,9 @@
       <c r="C244" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D244" s="14"/>
+      <c r="D244" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E244" s="5" t="s">
         <v>148</v>
       </c>
@@ -7549,7 +8028,9 @@
       <c r="C245" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D245" s="14"/>
+      <c r="D245" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E245" s="5" t="s">
         <v>148</v>
       </c>
@@ -7576,7 +8057,9 @@
       <c r="C246" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D246" s="14"/>
+      <c r="D246" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E246" s="5" t="s">
         <v>148</v>
       </c>
@@ -7603,7 +8086,9 @@
       <c r="C247" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D247" s="14"/>
+      <c r="D247" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E247" s="5" t="s">
         <v>148</v>
       </c>
@@ -7630,7 +8115,9 @@
       <c r="C248" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D248" s="14"/>
+      <c r="D248" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E248" s="5" t="s">
         <v>151</v>
       </c>
@@ -7657,7 +8144,9 @@
       <c r="C249" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D249" s="14"/>
+      <c r="D249" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E249" s="5" t="s">
         <v>151</v>
       </c>
@@ -7684,7 +8173,9 @@
       <c r="C250" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D250" s="14"/>
+      <c r="D250" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E250" s="5" t="s">
         <v>151</v>
       </c>
@@ -7711,7 +8202,9 @@
       <c r="C251" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D251" s="14"/>
+      <c r="D251" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E251" s="5" t="s">
         <v>151</v>
       </c>
@@ -7738,7 +8231,9 @@
       <c r="C252" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D252" s="14"/>
+      <c r="D252" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E252" s="5" t="s">
         <v>151</v>
       </c>
@@ -7765,7 +8260,9 @@
       <c r="C253" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D253" s="14"/>
+      <c r="D253" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E253" s="5" t="s">
         <v>151</v>
       </c>
@@ -7792,7 +8289,9 @@
       <c r="C254" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D254" s="14"/>
+      <c r="D254" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E254" s="5" t="s">
         <v>151</v>
       </c>
@@ -7819,7 +8318,9 @@
       <c r="C255" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D255" s="14"/>
+      <c r="D255" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E255" s="5" t="s">
         <v>151</v>
       </c>
@@ -7846,7 +8347,9 @@
       <c r="C256" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D256" s="14"/>
+      <c r="D256" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E256" s="5" t="s">
         <v>151</v>
       </c>
@@ -7873,7 +8376,9 @@
       <c r="C257" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D257" s="14"/>
+      <c r="D257" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E257" s="5" t="s">
         <v>151</v>
       </c>
@@ -7900,7 +8405,9 @@
       <c r="C258" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D258" s="14"/>
+      <c r="D258" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E258" s="5" t="s">
         <v>151</v>
       </c>
@@ -7927,7 +8434,9 @@
       <c r="C259" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D259" s="14"/>
+      <c r="D259" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E259" s="5" t="s">
         <v>151</v>
       </c>
@@ -7954,7 +8463,9 @@
       <c r="C260" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D260" s="14"/>
+      <c r="D260" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E260" s="5" t="s">
         <v>151</v>
       </c>
@@ -7981,7 +8492,9 @@
       <c r="C261" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D261" s="14"/>
+      <c r="D261" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E261" s="5" t="s">
         <v>151</v>
       </c>
@@ -8008,7 +8521,9 @@
       <c r="C262" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D262" s="14"/>
+      <c r="D262" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E262" s="5" t="s">
         <v>151</v>
       </c>
@@ -8035,7 +8550,9 @@
       <c r="C263" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D263" s="14"/>
+      <c r="D263" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E263" s="5" t="s">
         <v>151</v>
       </c>
@@ -8062,7 +8579,9 @@
       <c r="C264" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D264" s="14"/>
+      <c r="D264" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E264" s="5" t="s">
         <v>151</v>
       </c>
@@ -8089,7 +8608,9 @@
       <c r="C265" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D265" s="14"/>
+      <c r="D265" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E265" s="5" t="s">
         <v>151</v>
       </c>
@@ -8116,7 +8637,9 @@
       <c r="C266" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D266" s="14"/>
+      <c r="D266" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E266" s="5" t="s">
         <v>151</v>
       </c>
@@ -8143,7 +8666,9 @@
       <c r="C267" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D267" s="14"/>
+      <c r="D267" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E267" s="5" t="s">
         <v>151</v>
       </c>
@@ -8170,7 +8695,9 @@
       <c r="C268" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D268" s="14"/>
+      <c r="D268" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E268" s="5" t="s">
         <v>151</v>
       </c>
@@ -8197,7 +8724,9 @@
       <c r="C269" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D269" s="14"/>
+      <c r="D269" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E269" s="5" t="s">
         <v>151</v>
       </c>
@@ -8224,7 +8753,9 @@
       <c r="C270" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D270" s="14"/>
+      <c r="D270" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E270" s="5" t="s">
         <v>151</v>
       </c>
@@ -8251,7 +8782,9 @@
       <c r="C271" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D271" s="14"/>
+      <c r="D271" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E271" s="5" t="s">
         <v>151</v>
       </c>
@@ -8278,7 +8811,9 @@
       <c r="C272" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D272" s="14"/>
+      <c r="D272" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E272" s="5" t="s">
         <v>151</v>
       </c>
@@ -8305,7 +8840,9 @@
       <c r="C273" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D273" s="14"/>
+      <c r="D273" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E273" s="5" t="s">
         <v>151</v>
       </c>
@@ -8332,7 +8869,9 @@
       <c r="C274" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D274" s="14"/>
+      <c r="D274" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E274" s="5" t="s">
         <v>151</v>
       </c>
@@ -8359,7 +8898,9 @@
       <c r="C275" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D275" s="14"/>
+      <c r="D275" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E275" s="5" t="s">
         <v>151</v>
       </c>
@@ -8386,7 +8927,9 @@
       <c r="C276" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D276" s="14"/>
+      <c r="D276" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E276" s="5" t="s">
         <v>151</v>
       </c>
@@ -8413,7 +8956,9 @@
       <c r="C277" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D277" s="14"/>
+      <c r="D277" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E277" s="5" t="s">
         <v>151</v>
       </c>
@@ -8440,7 +8985,9 @@
       <c r="C278" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D278" s="14"/>
+      <c r="D278" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E278" s="5" t="s">
         <v>151</v>
       </c>
@@ -8467,7 +9014,9 @@
       <c r="C279" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D279" s="14"/>
+      <c r="D279" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E279" s="5" t="s">
         <v>151</v>
       </c>
@@ -8494,7 +9043,9 @@
       <c r="C280" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D280" s="14"/>
+      <c r="D280" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E280" s="5" t="s">
         <v>151</v>
       </c>
@@ -8521,7 +9072,9 @@
       <c r="C281" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D281" s="14"/>
+      <c r="D281" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E281" s="5" t="s">
         <v>151</v>
       </c>
@@ -8548,7 +9101,9 @@
       <c r="C282" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D282" s="14"/>
+      <c r="D282" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E282" s="5" t="s">
         <v>151</v>
       </c>
@@ -8575,7 +9130,9 @@
       <c r="C283" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D283" s="14"/>
+      <c r="D283" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E283" s="5" t="s">
         <v>151</v>
       </c>
@@ -8602,7 +9159,9 @@
       <c r="C284" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D284" s="14"/>
+      <c r="D284" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E284" s="5" t="s">
         <v>151</v>
       </c>
@@ -8629,7 +9188,9 @@
       <c r="C285" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D285" s="14"/>
+      <c r="D285" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E285" s="5" t="s">
         <v>151</v>
       </c>
@@ -8656,7 +9217,9 @@
       <c r="C286" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D286" s="14"/>
+      <c r="D286" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E286" s="5" t="s">
         <v>151</v>
       </c>
@@ -8683,7 +9246,9 @@
       <c r="C287" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D287" s="14"/>
+      <c r="D287" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E287" s="5" t="s">
         <v>151</v>
       </c>
@@ -8710,7 +9275,9 @@
       <c r="C288" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D288" s="14"/>
+      <c r="D288" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E288" s="5" t="s">
         <v>151</v>
       </c>
@@ -8737,7 +9304,9 @@
       <c r="C289" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D289" s="14"/>
+      <c r="D289" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E289" s="5" t="s">
         <v>151</v>
       </c>
@@ -8764,7 +9333,9 @@
       <c r="C290" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D290" s="14"/>
+      <c r="D290" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E290" s="5" t="s">
         <v>151</v>
       </c>
@@ -8791,7 +9362,9 @@
       <c r="C291" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D291" s="14"/>
+      <c r="D291" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E291" s="5" t="s">
         <v>151</v>
       </c>
@@ -8818,7 +9391,9 @@
       <c r="C292" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D292" s="14"/>
+      <c r="D292" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E292" s="5" t="s">
         <v>151</v>
       </c>
@@ -8845,7 +9420,9 @@
       <c r="C293" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D293" s="14"/>
+      <c r="D293" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E293" s="5" t="s">
         <v>151</v>
       </c>
@@ -8872,7 +9449,9 @@
       <c r="C294" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D294" s="14"/>
+      <c r="D294" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E294" s="5" t="s">
         <v>151</v>
       </c>
@@ -8899,7 +9478,9 @@
       <c r="C295" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D295" s="14"/>
+      <c r="D295" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E295" s="5" t="s">
         <v>151</v>
       </c>
@@ -8926,7 +9507,9 @@
       <c r="C296" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="14"/>
+      <c r="D296" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E296" s="5" t="s">
         <v>153</v>
       </c>
@@ -8953,7 +9536,9 @@
       <c r="C297" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D297" s="14"/>
+      <c r="D297" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E297" s="5" t="s">
         <v>153</v>
       </c>
@@ -8980,7 +9565,9 @@
       <c r="C298" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D298" s="14"/>
+      <c r="D298" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E298" s="5" t="s">
         <v>155</v>
       </c>
@@ -9007,7 +9594,9 @@
       <c r="C299" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D299" s="14"/>
+      <c r="D299" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E299" s="5" t="s">
         <v>155</v>
       </c>
@@ -9034,7 +9623,9 @@
       <c r="C300" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D300" s="14"/>
+      <c r="D300" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E300" s="5" t="s">
         <v>155</v>
       </c>
@@ -9061,7 +9652,9 @@
       <c r="C301" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D301" s="14"/>
+      <c r="D301" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E301" s="5" t="s">
         <v>155</v>
       </c>
@@ -9088,7 +9681,9 @@
       <c r="C302" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D302" s="14"/>
+      <c r="D302" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E302" s="5" t="s">
         <v>155</v>
       </c>
@@ -9115,7 +9710,9 @@
       <c r="C303" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D303" s="14"/>
+      <c r="D303" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E303" s="5" t="s">
         <v>155</v>
       </c>
@@ -9142,7 +9739,9 @@
       <c r="C304" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D304" s="14"/>
+      <c r="D304" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E304" s="5" t="s">
         <v>155</v>
       </c>
@@ -9169,7 +9768,9 @@
       <c r="C305" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D305" s="14"/>
+      <c r="D305" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E305" s="5" t="s">
         <v>155</v>
       </c>
@@ -9196,7 +9797,9 @@
       <c r="C306" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D306" s="14"/>
+      <c r="D306" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E306" s="5" t="s">
         <v>155</v>
       </c>
@@ -9223,7 +9826,9 @@
       <c r="C307" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D307" s="14"/>
+      <c r="D307" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E307" s="5" t="s">
         <v>155</v>
       </c>
@@ -9250,7 +9855,9 @@
       <c r="C308" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D308" s="14"/>
+      <c r="D308" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E308" s="5" t="s">
         <v>155</v>
       </c>
@@ -9277,7 +9884,9 @@
       <c r="C309" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D309" s="14"/>
+      <c r="D309" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E309" s="5" t="s">
         <v>155</v>
       </c>
@@ -9304,7 +9913,9 @@
       <c r="C310" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D310" s="14"/>
+      <c r="D310" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E310" s="5" t="s">
         <v>155</v>
       </c>
@@ -9331,7 +9942,9 @@
       <c r="C311" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D311" s="14"/>
+      <c r="D311" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E311" s="5" t="s">
         <v>155</v>
       </c>
@@ -9358,7 +9971,9 @@
       <c r="C312" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D312" s="14"/>
+      <c r="D312" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E312" s="5" t="s">
         <v>155</v>
       </c>
@@ -9385,7 +10000,9 @@
       <c r="C313" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D313" s="14"/>
+      <c r="D313" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E313" s="5" t="s">
         <v>155</v>
       </c>
@@ -9412,7 +10029,9 @@
       <c r="C314" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D314" s="14"/>
+      <c r="D314" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E314" s="5" t="s">
         <v>155</v>
       </c>
@@ -9439,7 +10058,9 @@
       <c r="C315" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D315" s="14"/>
+      <c r="D315" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E315" s="5" t="s">
         <v>155</v>
       </c>
@@ -9466,7 +10087,9 @@
       <c r="C316" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D316" s="14"/>
+      <c r="D316" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E316" s="5" t="s">
         <v>155</v>
       </c>
@@ -9493,7 +10116,9 @@
       <c r="C317" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D317" s="14"/>
+      <c r="D317" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E317" s="5" t="s">
         <v>155</v>
       </c>
@@ -9520,7 +10145,9 @@
       <c r="C318" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D318" s="14"/>
+      <c r="D318" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E318" s="5" t="s">
         <v>155</v>
       </c>
@@ -9547,7 +10174,9 @@
       <c r="C319" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D319" s="14"/>
+      <c r="D319" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E319" s="5" t="s">
         <v>155</v>
       </c>
@@ -9574,7 +10203,9 @@
       <c r="C320" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D320" s="14"/>
+      <c r="D320" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E320" s="5" t="s">
         <v>155</v>
       </c>
@@ -9601,7 +10232,9 @@
       <c r="C321" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D321" s="14"/>
+      <c r="D321" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E321" s="5" t="s">
         <v>155</v>
       </c>
@@ -9628,7 +10261,9 @@
       <c r="C322" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D322" s="14"/>
+      <c r="D322" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E322" s="5" t="s">
         <v>155</v>
       </c>
@@ -9655,7 +10290,9 @@
       <c r="C323" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D323" s="14"/>
+      <c r="D323" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E323" s="5" t="s">
         <v>155</v>
       </c>
@@ -9682,7 +10319,9 @@
       <c r="C324" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D324" s="14"/>
+      <c r="D324" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E324" s="5" t="s">
         <v>155</v>
       </c>
@@ -9709,7 +10348,9 @@
       <c r="C325" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D325" s="14"/>
+      <c r="D325" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E325" s="5" t="s">
         <v>155</v>
       </c>
@@ -9736,7 +10377,9 @@
       <c r="C326" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D326" s="14"/>
+      <c r="D326" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E326" s="5" t="s">
         <v>155</v>
       </c>
@@ -9763,7 +10406,9 @@
       <c r="C327" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D327" s="14"/>
+      <c r="D327" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E327" s="5" t="s">
         <v>155</v>
       </c>
@@ -9790,7 +10435,9 @@
       <c r="C328" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D328" s="14"/>
+      <c r="D328" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E328" s="5" t="s">
         <v>155</v>
       </c>
@@ -9817,7 +10464,9 @@
       <c r="C329" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D329" s="14"/>
+      <c r="D329" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E329" s="5" t="s">
         <v>155</v>
       </c>
@@ -9844,7 +10493,9 @@
       <c r="C330" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D330" s="14"/>
+      <c r="D330" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E330" s="5" t="s">
         <v>155</v>
       </c>
@@ -9871,7 +10522,9 @@
       <c r="C331" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D331" s="14"/>
+      <c r="D331" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E331" s="5" t="s">
         <v>155</v>
       </c>
@@ -9898,7 +10551,9 @@
       <c r="C332" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D332" s="14"/>
+      <c r="D332" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E332" s="5" t="s">
         <v>155</v>
       </c>
@@ -9925,7 +10580,9 @@
       <c r="C333" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D333" s="14"/>
+      <c r="D333" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E333" s="5" t="s">
         <v>155</v>
       </c>
@@ -9952,7 +10609,9 @@
       <c r="C334" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D334" s="14"/>
+      <c r="D334" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E334" s="5" t="s">
         <v>155</v>
       </c>
@@ -9979,7 +10638,9 @@
       <c r="C335" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D335" s="14"/>
+      <c r="D335" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E335" s="5" t="s">
         <v>155</v>
       </c>
@@ -10006,7 +10667,9 @@
       <c r="C336" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D336" s="14"/>
+      <c r="D336" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E336" s="5" t="s">
         <v>155</v>
       </c>
@@ -10033,7 +10696,9 @@
       <c r="C337" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D337" s="14"/>
+      <c r="D337" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E337" s="5" t="s">
         <v>155</v>
       </c>
@@ -10060,7 +10725,9 @@
       <c r="C338" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D338" s="14"/>
+      <c r="D338" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E338" s="5" t="s">
         <v>155</v>
       </c>
@@ -10087,7 +10754,9 @@
       <c r="C339" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D339" s="14"/>
+      <c r="D339" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E339" s="5" t="s">
         <v>155</v>
       </c>
@@ -10114,7 +10783,9 @@
       <c r="C340" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D340" s="14"/>
+      <c r="D340" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E340" s="5" t="s">
         <v>155</v>
       </c>
@@ -10141,7 +10812,9 @@
       <c r="C341" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D341" s="14"/>
+      <c r="D341" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E341" s="5" t="s">
         <v>155</v>
       </c>
@@ -10168,7 +10841,9 @@
       <c r="C342" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D342" s="14"/>
+      <c r="D342" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E342" s="5" t="s">
         <v>155</v>
       </c>
@@ -10195,7 +10870,9 @@
       <c r="C343" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D343" s="14"/>
+      <c r="D343" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E343" s="5" t="s">
         <v>155</v>
       </c>
@@ -10222,7 +10899,9 @@
       <c r="C344" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D344" s="14"/>
+      <c r="D344" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E344" s="5" t="s">
         <v>155</v>
       </c>
@@ -10249,7 +10928,9 @@
       <c r="C345" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D345" s="14"/>
+      <c r="D345" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E345" s="5" t="s">
         <v>155</v>
       </c>
@@ -10276,7 +10957,9 @@
       <c r="C346" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D346" s="14"/>
+      <c r="D346" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E346" s="5" t="s">
         <v>158</v>
       </c>
@@ -10303,7 +10986,9 @@
       <c r="C347" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D347" s="14"/>
+      <c r="D347" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E347" s="5" t="s">
         <v>158</v>
       </c>
@@ -10330,7 +11015,9 @@
       <c r="C348" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D348" s="14"/>
+      <c r="D348" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E348" s="5" t="s">
         <v>158</v>
       </c>
@@ -10357,7 +11044,9 @@
       <c r="C349" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D349" s="14"/>
+      <c r="D349" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E349" s="5" t="s">
         <v>158</v>
       </c>
@@ -10384,7 +11073,9 @@
       <c r="C350" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D350" s="14"/>
+      <c r="D350" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E350" s="5" t="s">
         <v>158</v>
       </c>
@@ -10411,7 +11102,9 @@
       <c r="C351" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D351" s="14"/>
+      <c r="D351" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E351" s="5" t="s">
         <v>158</v>
       </c>
@@ -10438,7 +11131,9 @@
       <c r="C352" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D352" s="14"/>
+      <c r="D352" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E352" s="5" t="s">
         <v>158</v>
       </c>
@@ -10465,7 +11160,9 @@
       <c r="C353" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D353" s="14"/>
+      <c r="D353" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E353" s="5" t="s">
         <v>158</v>
       </c>
@@ -10492,7 +11189,9 @@
       <c r="C354" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D354" s="14"/>
+      <c r="D354" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E354" s="5" t="s">
         <v>158</v>
       </c>
@@ -10519,7 +11218,9 @@
       <c r="C355" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D355" s="14"/>
+      <c r="D355" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E355" s="5" t="s">
         <v>158</v>
       </c>
@@ -10546,7 +11247,9 @@
       <c r="C356" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D356" s="14"/>
+      <c r="D356" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E356" s="5" t="s">
         <v>158</v>
       </c>
@@ -10573,7 +11276,9 @@
       <c r="C357" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D357" s="14"/>
+      <c r="D357" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E357" s="5" t="s">
         <v>158</v>
       </c>
@@ -10600,7 +11305,9 @@
       <c r="C358" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D358" s="14"/>
+      <c r="D358" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E358" s="5" t="s">
         <v>158</v>
       </c>
@@ -10627,7 +11334,9 @@
       <c r="C359" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D359" s="14"/>
+      <c r="D359" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E359" s="5" t="s">
         <v>158</v>
       </c>
@@ -10654,7 +11363,9 @@
       <c r="C360" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D360" s="14"/>
+      <c r="D360" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E360" s="5" t="s">
         <v>158</v>
       </c>
@@ -10681,7 +11392,9 @@
       <c r="C361" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D361" s="14"/>
+      <c r="D361" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E361" s="5" t="s">
         <v>158</v>
       </c>
@@ -10708,7 +11421,9 @@
       <c r="C362" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D362" s="14"/>
+      <c r="D362" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E362" s="5" t="s">
         <v>158</v>
       </c>
@@ -10735,7 +11450,9 @@
       <c r="C363" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D363" s="14"/>
+      <c r="D363" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E363" s="5" t="s">
         <v>158</v>
       </c>
@@ -10762,7 +11479,9 @@
       <c r="C364" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D364" s="14"/>
+      <c r="D364" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E364" s="5" t="s">
         <v>158</v>
       </c>
@@ -10789,7 +11508,9 @@
       <c r="C365" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D365" s="14"/>
+      <c r="D365" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E365" s="5" t="s">
         <v>158</v>
       </c>
@@ -10816,7 +11537,9 @@
       <c r="C366" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D366" s="14"/>
+      <c r="D366" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E366" s="5" t="s">
         <v>158</v>
       </c>
@@ -10843,7 +11566,9 @@
       <c r="C367" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D367" s="14"/>
+      <c r="D367" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E367" s="5" t="s">
         <v>158</v>
       </c>
@@ -10870,7 +11595,9 @@
       <c r="C368" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D368" s="14"/>
+      <c r="D368" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E368" s="5" t="s">
         <v>158</v>
       </c>
@@ -10897,7 +11624,9 @@
       <c r="C369" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D369" s="14"/>
+      <c r="D369" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E369" s="5" t="s">
         <v>158</v>
       </c>
@@ -10924,7 +11653,9 @@
       <c r="C370" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D370" s="14"/>
+      <c r="D370" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E370" s="5" t="s">
         <v>158</v>
       </c>
@@ -10951,7 +11682,9 @@
       <c r="C371" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D371" s="14"/>
+      <c r="D371" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E371" s="5" t="s">
         <v>158</v>
       </c>
@@ -10978,7 +11711,9 @@
       <c r="C372" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D372" s="14"/>
+      <c r="D372" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E372" s="5" t="s">
         <v>158</v>
       </c>
@@ -11005,7 +11740,9 @@
       <c r="C373" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D373" s="14"/>
+      <c r="D373" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E373" s="5" t="s">
         <v>158</v>
       </c>
@@ -11032,7 +11769,9 @@
       <c r="C374" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D374" s="14"/>
+      <c r="D374" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E374" s="5" t="s">
         <v>158</v>
       </c>
@@ -11059,7 +11798,9 @@
       <c r="C375" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D375" s="14"/>
+      <c r="D375" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E375" s="5" t="s">
         <v>158</v>
       </c>
@@ -11086,7 +11827,9 @@
       <c r="C376" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D376" s="14"/>
+      <c r="D376" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E376" s="5" t="s">
         <v>158</v>
       </c>
@@ -11113,7 +11856,9 @@
       <c r="C377" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D377" s="14"/>
+      <c r="D377" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E377" s="5" t="s">
         <v>158</v>
       </c>
@@ -11140,7 +11885,9 @@
       <c r="C378" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D378" s="14"/>
+      <c r="D378" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E378" s="5" t="s">
         <v>158</v>
       </c>
@@ -11167,7 +11914,9 @@
       <c r="C379" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D379" s="14"/>
+      <c r="D379" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E379" s="5" t="s">
         <v>158</v>
       </c>
@@ -11194,7 +11943,9 @@
       <c r="C380" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D380" s="14"/>
+      <c r="D380" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E380" s="5" t="s">
         <v>158</v>
       </c>
@@ -11221,7 +11972,9 @@
       <c r="C381" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D381" s="14"/>
+      <c r="D381" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E381" s="5" t="s">
         <v>158</v>
       </c>
@@ -11248,7 +12001,9 @@
       <c r="C382" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D382" s="14"/>
+      <c r="D382" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E382" s="5" t="s">
         <v>158</v>
       </c>
@@ -11275,7 +12030,9 @@
       <c r="C383" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D383" s="14"/>
+      <c r="D383" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E383" s="5" t="s">
         <v>158</v>
       </c>
@@ -11302,7 +12059,9 @@
       <c r="C384" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D384" s="14"/>
+      <c r="D384" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E384" s="5" t="s">
         <v>158</v>
       </c>
@@ -11329,7 +12088,9 @@
       <c r="C385" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D385" s="14"/>
+      <c r="D385" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E385" s="5" t="s">
         <v>158</v>
       </c>
@@ -11356,7 +12117,9 @@
       <c r="C386" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D386" s="14"/>
+      <c r="D386" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E386" s="5" t="s">
         <v>158</v>
       </c>
@@ -11383,7 +12146,9 @@
       <c r="C387" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D387" s="14"/>
+      <c r="D387" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E387" s="5" t="s">
         <v>158</v>
       </c>
@@ -11410,7 +12175,9 @@
       <c r="C388" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D388" s="14"/>
+      <c r="D388" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E388" s="5" t="s">
         <v>158</v>
       </c>
@@ -11437,7 +12204,9 @@
       <c r="C389" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D389" s="14"/>
+      <c r="D389" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E389" s="5" t="s">
         <v>158</v>
       </c>
@@ -11464,7 +12233,9 @@
       <c r="C390" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D390" s="14"/>
+      <c r="D390" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E390" s="5" t="s">
         <v>158</v>
       </c>
@@ -11491,7 +12262,9 @@
       <c r="C391" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D391" s="14"/>
+      <c r="D391" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E391" s="5" t="s">
         <v>158</v>
       </c>
@@ -11518,7 +12291,9 @@
       <c r="C392" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D392" s="14"/>
+      <c r="D392" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E392" s="5" t="s">
         <v>158</v>
       </c>
@@ -11545,7 +12320,9 @@
       <c r="C393" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D393" s="14"/>
+      <c r="D393" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E393" s="5" t="s">
         <v>158</v>
       </c>
@@ -11572,7 +12349,9 @@
       <c r="C394" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D394" s="14"/>
+      <c r="D394" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E394" s="5" t="s">
         <v>160</v>
       </c>
@@ -11599,7 +12378,9 @@
       <c r="C395" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D395" s="14"/>
+      <c r="D395" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E395" s="5" t="s">
         <v>160</v>
       </c>
@@ -11626,7 +12407,9 @@
       <c r="C396" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D396" s="14"/>
+      <c r="D396" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E396" s="5" t="s">
         <v>160</v>
       </c>
@@ -11653,7 +12436,9 @@
       <c r="C397" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D397" s="14"/>
+      <c r="D397" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E397" s="5" t="s">
         <v>160</v>
       </c>
@@ -11680,7 +12465,9 @@
       <c r="C398" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D398" s="14"/>
+      <c r="D398" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E398" s="5" t="s">
         <v>160</v>
       </c>
@@ -11707,7 +12494,9 @@
       <c r="C399" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D399" s="14"/>
+      <c r="D399" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E399" s="5" t="s">
         <v>160</v>
       </c>
@@ -11734,7 +12523,9 @@
       <c r="C400" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D400" s="14"/>
+      <c r="D400" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E400" s="5" t="s">
         <v>160</v>
       </c>
@@ -11761,7 +12552,9 @@
       <c r="C401" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D401" s="14"/>
+      <c r="D401" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E401" s="5" t="s">
         <v>160</v>
       </c>
@@ -11788,7 +12581,9 @@
       <c r="C402" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D402" s="14"/>
+      <c r="D402" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E402" s="5" t="s">
         <v>160</v>
       </c>
@@ -11815,7 +12610,9 @@
       <c r="C403" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D403" s="14"/>
+      <c r="D403" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E403" s="5" t="s">
         <v>160</v>
       </c>
@@ -11842,7 +12639,9 @@
       <c r="C404" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D404" s="14"/>
+      <c r="D404" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E404" s="5" t="s">
         <v>160</v>
       </c>
@@ -11869,7 +12668,9 @@
       <c r="C405" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D405" s="14"/>
+      <c r="D405" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E405" s="5" t="s">
         <v>160</v>
       </c>
@@ -11896,7 +12697,9 @@
       <c r="C406" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D406" s="14"/>
+      <c r="D406" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E406" s="5" t="s">
         <v>160</v>
       </c>
@@ -11923,7 +12726,9 @@
       <c r="C407" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D407" s="14"/>
+      <c r="D407" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E407" s="5" t="s">
         <v>160</v>
       </c>
@@ -11950,7 +12755,9 @@
       <c r="C408" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D408" s="14"/>
+      <c r="D408" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E408" s="5" t="s">
         <v>160</v>
       </c>
@@ -11977,7 +12784,9 @@
       <c r="C409" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D409" s="14"/>
+      <c r="D409" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E409" s="5" t="s">
         <v>160</v>
       </c>
@@ -12004,7 +12813,9 @@
       <c r="C410" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D410" s="14"/>
+      <c r="D410" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E410" s="5" t="s">
         <v>160</v>
       </c>
@@ -12031,7 +12842,9 @@
       <c r="C411" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D411" s="14"/>
+      <c r="D411" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E411" s="5" t="s">
         <v>160</v>
       </c>
@@ -12058,7 +12871,9 @@
       <c r="C412" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D412" s="14"/>
+      <c r="D412" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E412" s="5" t="s">
         <v>160</v>
       </c>
@@ -12085,7 +12900,9 @@
       <c r="C413" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D413" s="14"/>
+      <c r="D413" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E413" s="5" t="s">
         <v>160</v>
       </c>
@@ -12112,7 +12929,9 @@
       <c r="C414" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D414" s="14"/>
+      <c r="D414" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E414" s="5" t="s">
         <v>160</v>
       </c>
@@ -12139,7 +12958,9 @@
       <c r="C415" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D415" s="14"/>
+      <c r="D415" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E415" s="5" t="s">
         <v>160</v>
       </c>
@@ -12166,7 +12987,9 @@
       <c r="C416" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D416" s="14"/>
+      <c r="D416" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E416" s="5" t="s">
         <v>160</v>
       </c>
@@ -12193,7 +13016,9 @@
       <c r="C417" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D417" s="14"/>
+      <c r="D417" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E417" s="5" t="s">
         <v>160</v>
       </c>
@@ -12220,7 +13045,9 @@
       <c r="C418" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D418" s="14"/>
+      <c r="D418" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E418" s="5" t="s">
         <v>160</v>
       </c>
@@ -12247,7 +13074,9 @@
       <c r="C419" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D419" s="14"/>
+      <c r="D419" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E419" s="5" t="s">
         <v>160</v>
       </c>
@@ -12274,7 +13103,9 @@
       <c r="C420" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D420" s="14"/>
+      <c r="D420" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E420" s="5" t="s">
         <v>160</v>
       </c>
@@ -12301,7 +13132,9 @@
       <c r="C421" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D421" s="14"/>
+      <c r="D421" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E421" s="5" t="s">
         <v>160</v>
       </c>
@@ -12328,7 +13161,9 @@
       <c r="C422" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D422" s="14"/>
+      <c r="D422" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E422" s="5" t="s">
         <v>160</v>
       </c>
@@ -12355,7 +13190,9 @@
       <c r="C423" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D423" s="14"/>
+      <c r="D423" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E423" s="5" t="s">
         <v>160</v>
       </c>
@@ -12382,7 +13219,9 @@
       <c r="C424" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D424" s="14"/>
+      <c r="D424" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E424" s="5" t="s">
         <v>160</v>
       </c>
@@ -12409,7 +13248,9 @@
       <c r="C425" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D425" s="14"/>
+      <c r="D425" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E425" s="5" t="s">
         <v>160</v>
       </c>
@@ -12436,7 +13277,9 @@
       <c r="C426" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D426" s="14"/>
+      <c r="D426" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E426" s="5" t="s">
         <v>160</v>
       </c>
@@ -12463,7 +13306,9 @@
       <c r="C427" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D427" s="14"/>
+      <c r="D427" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E427" s="5" t="s">
         <v>160</v>
       </c>
@@ -12490,7 +13335,9 @@
       <c r="C428" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D428" s="14"/>
+      <c r="D428" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E428" s="5" t="s">
         <v>160</v>
       </c>
@@ -12517,7 +13364,9 @@
       <c r="C429" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D429" s="14"/>
+      <c r="D429" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E429" s="5" t="s">
         <v>160</v>
       </c>
@@ -12544,7 +13393,9 @@
       <c r="C430" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D430" s="14"/>
+      <c r="D430" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E430" s="5" t="s">
         <v>160</v>
       </c>
@@ -12571,7 +13422,9 @@
       <c r="C431" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D431" s="14"/>
+      <c r="D431" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E431" s="5" t="s">
         <v>160</v>
       </c>
@@ -12598,7 +13451,9 @@
       <c r="C432" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D432" s="14"/>
+      <c r="D432" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E432" s="5" t="s">
         <v>160</v>
       </c>
@@ -12625,7 +13480,9 @@
       <c r="C433" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D433" s="14"/>
+      <c r="D433" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E433" s="5" t="s">
         <v>160</v>
       </c>
@@ -12652,7 +13509,9 @@
       <c r="C434" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D434" s="14"/>
+      <c r="D434" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E434" s="5" t="s">
         <v>160</v>
       </c>
@@ -12679,7 +13538,9 @@
       <c r="C435" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D435" s="14"/>
+      <c r="D435" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E435" s="5" t="s">
         <v>160</v>
       </c>
@@ -12706,7 +13567,9 @@
       <c r="C436" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D436" s="14"/>
+      <c r="D436" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E436" s="5" t="s">
         <v>160</v>
       </c>
@@ -12733,7 +13596,9 @@
       <c r="C437" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D437" s="14"/>
+      <c r="D437" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E437" s="5" t="s">
         <v>160</v>
       </c>
@@ -12760,7 +13625,9 @@
       <c r="C438" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D438" s="14"/>
+      <c r="D438" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E438" s="5" t="s">
         <v>160</v>
       </c>
@@ -12787,7 +13654,9 @@
       <c r="C439" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D439" s="14"/>
+      <c r="D439" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E439" s="5" t="s">
         <v>160</v>
       </c>
@@ -12814,7 +13683,9 @@
       <c r="C440" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D440" s="14"/>
+      <c r="D440" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E440" s="5" t="s">
         <v>160</v>
       </c>
@@ -12841,7 +13712,9 @@
       <c r="C441" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D441" s="14"/>
+      <c r="D441" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="E441" s="5" t="s">
         <v>160</v>
       </c>
@@ -12856,6 +13729,11 @@
       </c>
       <c r="I441" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D442" s="14" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
